--- a/src/main/resources/importfiles/testfiles/RND_Std_032023_sample_single.xlsx
+++ b/src/main/resources/importfiles/testfiles/RND_Std_032023_sample_single.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otter\Documents\CoderBay\baetter\baetter-identifier\src\main\resources\importfiles\testfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eigene Dateien\Dokumente\GitHub\Baetter-Solutions\baetter-identifier\src\main\resources\importfiles\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{326D64DC-AA18-4A1B-A256-AFE8EADB57F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF7804D-0C03-4EE0-82FF-19916F537E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{23498E98-C16E-46DF-AD53-14088726713D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23498E98-C16E-46DF-AD53-14088726713D}"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>ARTIKELNUMMER</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>AX FEHLT</t>
+  </si>
+  <si>
+    <t>T25F-C3YDANKE</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
         <v>120753950</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
